--- a/biology/Zoologie/Colibri_à_tête_violette/Colibri_à_tête_violette.xlsx
+++ b/biology/Zoologie/Colibri_à_tête_violette/Colibri_à_tête_violette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_t%C3%AAte_violette</t>
+          <t>Colibri_à_tête_violette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Klais guimeti
 Le Colibri à tête violette (Klais guimeti) est une espèce de colibris (la famille des Trochilidae) d'Amérique centrale et du nord de l'Amérique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_t%C3%AAte_violette</t>
+          <t>Colibri_à_tête_violette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit colibri ne mesure qu'environ 7,5 cm de longueur pour une masse de moins de 3 g. Le mâle a le front, la calotte et la gorge violettes. La femelle a la calotte bleu verdâtre.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_t%C3%AAte_violette</t>
+          <t>Colibri_à_tête_violette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de cette espèce s'étend au nord jusqu'au Honduras, au sud jusqu'en Bolivie, à l'est jusqu'au Brésil et au Venezuela, et à l'est jusqu'à Équateur.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_t%C3%AAte_violette</t>
+          <t>Colibri_à_tête_violette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce habite les forêts tropicales et subtropicales humides de plaines et de montagne (jusqu'à 1 000 m d'altitude) mais aussi sur les forêts fortement dégradées, les clairières et les jardins au voisinage des forêts.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colibri_%C3%A0_t%C3%AAte_violette</t>
+          <t>Colibri_à_tête_violette</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des sous-espèces suivantes :
 Klais guimeti guimeti (Bourcier, 1843) ;
